--- a/biology/Botanique/Ariocarpus_kotschoubeyanus/Ariocarpus_kotschoubeyanus.xlsx
+++ b/biology/Botanique/Ariocarpus_kotschoubeyanus/Ariocarpus_kotschoubeyanus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ariocarpus kotschoubeyanus est une espèce de cactus du genre Ariocarpus, originaire de l'état de Durango, Nuevo León et San Luis Potosí au Mexique.
 Le nom kotschoubeyanus a été donné par Charles Lemaire en l'honneur du Prince Vassili Viktorovitch Kotchoubeï (1812-1850).
@@ -512,7 +524,9 @@
           <t>Son habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ariocarpus kotschoubeyanus a la plus grande aire de répartition du genre. Elle s'étale sur pas moins des 6 états mexicains où sont présents les Ariocarpus (Coahuila, Nuevo Leon, San Luis Potosi, Tamaulipas, Zacatecas et Querétaro), sur une distance d'environ 600 km et pour des altitudes allant de 1 000 à 1 400 mètres.
 </t>
@@ -543,7 +557,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce est la plus petite du genre. La rosette, déprimée en son centre, reste très plate ne dépassant pas 3 cm de hauteur pour 7 cm de diamètre.
 Les tubercules triangulaires, plutôt vert sombre, sont sillonnés par de la laine et se terminent en pointe. Ils sont également non-verruqueux, assez plats, avec une taille d'environ 1,5 cm de long sur 1 cm de large.
@@ -576,9 +592,11 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Ariocarpus kotschoubeyanus a pour synonymes[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Ariocarpus kotschoubeyanus a pour synonymes :
 Anhalonium fissipedum Monv. ex C.F.Forst.
 Anhalonium kotchubeyi Lem. ex Salm-Dyck
 Anhalonium kotschoubeyanum Lem.
@@ -623,9 +641,11 @@
           <t>Liste des sous-espèces et variétés</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon Tropicos                                           (7 février 2021)[3] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon Tropicos                                           (7 février 2021) :
 sous-espèce Ariocarpus kotschoubeyanus subsp. agavoides (Castañeda) Halda ≡ Ariocarpus agavoides
 sous-espèce Ariocarpus kotschoubeyanus subsp. albiflorus (Backeb.) Glass = Ariocarpus kotschoubeyanus
 sous-espèce Ariocarpus kotschoubeyanus subsp. bravoanus (H.M. Hern. &amp; E.F. Anderson) Halda ≡ Ariocarpus fissuratus subsp. bravoanus
